--- a/tables/table_18.xlsx
+++ b/tables/table_18.xlsx
@@ -11,6 +11,20 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,55 +380,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2">
         <v>186</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
         <v>101</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
         <v>85</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
         <v>57</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
         <v>31</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8">
         <v>26</v>
       </c>
-      <c r="H2">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
         <v>144</v>
       </c>
-      <c r="I2">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
         <v>97</v>
       </c>
-      <c r="J2">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
         <v>47</v>
       </c>
-      <c r="K2">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
         <v>35</v>
       </c>
-      <c r="L2">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
         <v>23</v>
       </c>
-      <c r="M2">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
